--- a/cicat/cvss-example/SCENARIO.xlsx
+++ b/cicat/cvss-example/SCENARIO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yves\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AA7F9DA-4D98-415C-A9A3-279957267CCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD09052C-CC01-4FC0-899D-125E6E12BD35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="10690" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="assets" sheetId="5" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4704" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4704" uniqueCount="145">
   <si>
     <t>威胁目标</t>
   </si>
@@ -458,9 +458,6 @@
     <t>U</t>
   </si>
   <si>
-    <t>UD</t>
-  </si>
-  <si>
     <t>OF</t>
   </si>
   <si>
@@ -511,10 +508,10 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -801,7 +798,7 @@
   <dimension ref="A1:B1594"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -811,10 +808,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>27</v>
       </c>
     </row>
@@ -13572,7 +13569,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13582,10 +13579,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>18</v>
       </c>
     </row>
@@ -13702,8 +13699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{930505B7-8F6F-4B28-B36A-2E8442EFB38A}">
   <dimension ref="A1:P89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13712,52 +13709,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>26</v>
       </c>
     </row>
@@ -18173,25 +18170,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51BCA341-3647-4A3C-B055-110AD9E9D6FB}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
@@ -18202,7 +18199,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
+      <c r="A3" s="2"/>
       <c r="B3" t="s">
         <v>15</v>
       </c>
@@ -18211,7 +18208,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
+      <c r="A4" s="2"/>
       <c r="B4" t="s">
         <v>131</v>
       </c>
@@ -18220,7 +18217,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
@@ -18231,7 +18228,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
+      <c r="A6" s="2"/>
       <c r="B6" t="s">
         <v>130</v>
       </c>
@@ -18240,7 +18237,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
+      <c r="A7" s="2"/>
       <c r="B7" t="s">
         <v>133</v>
       </c>
@@ -18249,7 +18246,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B8" t="s">
@@ -18260,7 +18257,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
+      <c r="A9" s="2"/>
       <c r="B9" t="s">
         <v>135</v>
       </c>
@@ -18269,7 +18266,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
+      <c r="A10" s="2"/>
       <c r="B10" t="s">
         <v>131</v>
       </c>
@@ -18278,7 +18275,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B11" t="s">
@@ -18289,7 +18286,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
+      <c r="A12" s="2"/>
       <c r="B12" t="s">
         <v>139</v>
       </c>
@@ -18298,7 +18295,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
+      <c r="A13" s="2"/>
       <c r="B13" t="s">
         <v>13</v>
       </c>
@@ -18307,7 +18304,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
+      <c r="A14" s="2"/>
       <c r="B14" t="s">
         <v>137</v>
       </c>
@@ -18316,7 +18313,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B15" t="s">
@@ -18327,7 +18324,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
+      <c r="A16" s="2"/>
       <c r="B16" t="s">
         <v>8</v>
       </c>
@@ -18336,7 +18333,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
+      <c r="A17" s="2"/>
       <c r="B17" t="s">
         <v>140</v>
       </c>
@@ -18345,7 +18342,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
+      <c r="A18" s="2"/>
       <c r="B18" t="s">
         <v>136</v>
       </c>
@@ -18354,7 +18351,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
+      <c r="A19" s="2"/>
       <c r="B19" t="s">
         <v>137</v>
       </c>
@@ -18396,18 +18393,18 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B3">
@@ -18421,7 +18418,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>134</v>
       </c>
       <c r="B4">
@@ -18435,7 +18432,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>131</v>
       </c>
       <c r="B5">
@@ -18461,20 +18458,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8C58C94-77BA-403D-A544-EB8E0A6DF34F}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -18512,7 +18509,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B5" t="s">
@@ -18523,7 +18520,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
+      <c r="A6" s="2"/>
       <c r="B6" t="s">
         <v>133</v>
       </c>
@@ -18532,7 +18529,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
+      <c r="A7" s="2"/>
       <c r="B7" t="s">
         <v>130</v>
       </c>
@@ -18541,7 +18538,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
+      <c r="A8" s="2"/>
       <c r="B8" t="s">
         <v>137</v>
       </c>
@@ -18550,7 +18547,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B9" t="s">
@@ -18561,7 +18558,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
+      <c r="A10" s="2"/>
       <c r="B10" t="s">
         <v>133</v>
       </c>
@@ -18570,7 +18567,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
+      <c r="A11" s="2"/>
       <c r="B11" t="s">
         <v>130</v>
       </c>
@@ -18579,7 +18576,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
+      <c r="A12" s="2"/>
       <c r="B12" t="s">
         <v>137</v>
       </c>
@@ -18588,7 +18585,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B13" t="s">
@@ -18599,7 +18596,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
+      <c r="A14" s="2"/>
       <c r="B14" t="s">
         <v>133</v>
       </c>
@@ -18608,7 +18605,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
+      <c r="A15" s="2"/>
       <c r="B15" t="s">
         <v>130</v>
       </c>
@@ -18617,7 +18614,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
+      <c r="A16" s="2"/>
       <c r="B16" t="s">
         <v>137</v>
       </c>
@@ -18626,36 +18623,36 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C17">
         <v>0.87</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
+      <c r="A18" s="2"/>
       <c r="B18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C18">
         <v>0.9</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
+      <c r="A19" s="2"/>
       <c r="B19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C19">
         <v>0.95</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
+      <c r="A20" s="2"/>
       <c r="B20" t="s">
         <v>141</v>
       </c>
@@ -18664,9 +18661,9 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
+      <c r="A21" s="2"/>
       <c r="B21" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C21">
         <v>1</v>
